--- a/2016년 재료비 9월/주산과암산 교재비.xlsx
+++ b/2016년 재료비 9월/주산과암산 교재비.xlsx
@@ -117,15 +117,9 @@
     <t>최안희</t>
   </si>
   <si>
-    <t xml:space="preserve">5반  </t>
-  </si>
-  <si>
     <t>신서현</t>
   </si>
   <si>
-    <t>4학녀</t>
-  </si>
-  <si>
     <t>김별이</t>
   </si>
   <si>
@@ -142,6 +136,14 @@
   </si>
   <si>
     <t>윤수영</t>
+  </si>
+  <si>
+    <t>5반</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4학년</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -543,7 +545,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -938,13 +940,13 @@
         <v>31</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D18" s="9">
         <v>15</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="10">
         <v>8000</v>
@@ -956,7 +958,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>18</v>
@@ -965,7 +967,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="10">
         <v>6000</v>
@@ -977,7 +979,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>9</v>
@@ -986,7 +988,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" s="10">
         <v>8000</v>
@@ -998,16 +1000,16 @@
         <v>7</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="9">
         <v>16</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" s="10">
         <v>8000</v>
